--- a/5-4-PWM控制一个电机并测速/STM32F103C8T6引脚定义.xlsx
+++ b/5-4-PWM控制一个电机并测速/STM32F103C8T6引脚定义.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoliang/code/chip32-learning/5-4-PWM控制两个电机/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoliang/code/chip32-learning/5-4-PWM控制一个电机并测速/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B1A9C5-7045-1048-BA31-366EB0C40D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B5CA8-85B7-EC4A-9117-14E4E8A5A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27220" windowHeight="19960" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -359,164 +359,202 @@
     <t>VDD_2</t>
   </si>
   <si>
+    <t>I2C1_SDA/TIM4_CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VSS_3 </t>
+  </si>
+  <si>
+    <t>VSS_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDD_3 </t>
+  </si>
+  <si>
+    <t>VDD_3</t>
+  </si>
+  <si>
+    <t>引脚号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F103C8T6引脚定义表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引脚名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O口电平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定义功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WKUP/USART2_CTS/ADC12_IN0/TIM2_CH1_ETR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RTS/ADC12_IN1/TIM2_CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_TX/ADC12_IN2/TIM2_CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX/ADC12_IN3/TIM2_CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_NSS/USART2_CK/ADC12_IN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_MISO/ADC12_IN6/TIM3_CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1_MOSI/ADC12_IN7/TIM3_CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_NSS/I2C2_SMBAI/USART3_CK/TIM1_BKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_SCK/USART3_CTS/TIM1_CH1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2_MISO/USART3_RTS/TIM1_CH2N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_CK/TIM1_CH1/MCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_CTS/USBDM/CAN_RX/TIM1_CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3/TRACESWO/TIM2_CH2/SPI1_SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4/TIM3_CH1/SPI1_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH2/SPI1_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWMA</t>
+  </si>
+  <si>
+    <t>PWMB</t>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>电机A 的A相</t>
+  </si>
+  <si>
+    <t>电机A 的B相</t>
+  </si>
+  <si>
+    <t>TB6612 AIN2</t>
+  </si>
+  <si>
+    <t>TB6612 AIN1</t>
+  </si>
+  <si>
+    <t>TB6612</t>
+  </si>
+  <si>
+    <t>520电机</t>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
     <t>I2C1_SCL/TIM4_CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C1_SDA/TIM4_CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS_3 </t>
-  </si>
-  <si>
-    <t>VSS_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDD_3 </t>
-  </si>
-  <si>
-    <t>VDD_3</t>
-  </si>
-  <si>
-    <t>引脚号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F103C8T6引脚定义表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引脚名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I/O口电平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重定义功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WKUP/USART2_CTS/ADC12_IN0/TIM2_CH1_ETR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2_RTS/ADC12_IN1/TIM2_CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2_TX/ADC12_IN2/TIM2_CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2_RX/ADC12_IN3/TIM2_CH4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_NSS/USART2_CK/ADC12_IN4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_MISO/ADC12_IN6/TIM3_CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_MOSI/ADC12_IN7/TIM3_CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_NSS/I2C2_SMBAI/USART3_CK/TIM1_BKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_SCK/USART3_CTS/TIM1_CH1N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_MISO/USART3_RTS/TIM1_CH2N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_CK/TIM1_CH1/MCO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_CTS/USBDM/CAN_RX/TIM1_CH4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>USART1_RTS/USBDP/CAN_TX/TIM1_ETR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2_CH1_ETR/PA15/SPI1_NSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB3/TRACESWO/TIM2_CH2/SPI1_SCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB4/TIM3_CH1/SPI1_MISO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3_CH2/SPI1_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWMA</t>
-  </si>
-  <si>
-    <t>PWMB</t>
-  </si>
-  <si>
-    <t>TIM2_CH2</t>
-  </si>
-  <si>
-    <t>电机A 的A相</t>
-  </si>
-  <si>
-    <t>电机A 的B相</t>
-  </si>
-  <si>
-    <t>TB6612 AIN2</t>
-  </si>
-  <si>
-    <t>TB6612 AIN1</t>
-  </si>
-  <si>
-    <t>TB6612</t>
-  </si>
-  <si>
-    <t>520电机</t>
-  </si>
-  <si>
-    <t>TIM3_CH2</t>
-  </si>
-  <si>
-    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>MPU_I2C SCL</t>
+  </si>
+  <si>
+    <t>MPU_I2C SDA</t>
+  </si>
+  <si>
+    <t>OLED_I2C_SDA</t>
+  </si>
+  <si>
+    <t>OLED_I2C_SCL</t>
+  </si>
+  <si>
+    <t>MPU 12 中断</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPU AD0 </t>
+  </si>
+  <si>
+    <r>
+      <t>TIM2_CH1_ETR/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PA15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/SPI1_NSS</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +595,21 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -617,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +705,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,8 +1032,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1"/>
@@ -991,7 +1050,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1002,25 +1061,25 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1">
@@ -1182,10 +1241,10 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1">
@@ -1203,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -1222,14 +1281,14 @@
         <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
@@ -1247,11 +1306,11 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>32</v>
@@ -1272,7 +1331,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1291,11 +1350,11 @@
         <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
@@ -1317,7 +1376,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
@@ -1335,16 +1394,16 @@
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
@@ -1362,16 +1421,16 @@
         <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
@@ -1439,7 +1498,7 @@
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1456,13 +1515,16 @@
       </c>
       <c r="G23" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1479,6 +1541,9 @@
       </c>
       <c r="G24" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1">
@@ -1532,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1553,7 +1618,7 @@
         <v>37</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1574,7 +1639,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1616,7 +1681,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -1641,7 +1706,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1">
+    <row r="33" spans="1:8" ht="19.5" customHeight="1">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -1662,7 +1727,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1">
+    <row r="34" spans="1:8" ht="19.5" customHeight="1">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -1679,15 +1744,15 @@
         <v>45</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1">
+    <row r="35" spans="1:8" ht="19.5" customHeight="1">
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1700,11 +1765,14 @@
         <v>47</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1">
+      <c r="H35" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -1725,7 +1793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1">
+    <row r="37" spans="1:8" ht="19.5" customHeight="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1742,7 +1810,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1">
+    <row r="38" spans="1:8" ht="19.5" customHeight="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -1759,7 +1827,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1">
+    <row r="39" spans="1:8" ht="19.5" customHeight="1">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -1780,11 +1848,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19.5" customHeight="1">
+    <row r="40" spans="1:8" ht="19.5" customHeight="1">
       <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1798,10 +1866,13 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.5" customHeight="1">
+        <v>149</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -1819,10 +1890,10 @@
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -1840,10 +1911,10 @@
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.5" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -1861,14 +1932,14 @@
         <v>59</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.5" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1">
       <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1881,17 +1952,20 @@
         <v>60</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.5" customHeight="1">
+        <v>129</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1">
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -1904,13 +1978,16 @@
         <v>61</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" customHeight="1">
+      <c r="H45" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -1927,7 +2004,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" ht="19.5" customHeight="1">
+    <row r="47" spans="1:8" ht="19.5" customHeight="1">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -1950,7 +2027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="19.5" customHeight="1">
+    <row r="48" spans="1:8" ht="19.5" customHeight="1">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -1978,14 +2055,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -1995,14 +2072,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
